--- a/biology/Médecine/Jean-Marc_Ayoubi/Jean-Marc_Ayoubi.xlsx
+++ b/biology/Médecine/Jean-Marc_Ayoubi/Jean-Marc_Ayoubi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marc Ayoubi, né au Liban le 29 septembre 1963[1], est un gynécologue obstétricien français, professeur des universités à l'UFR des sciences de la santé Simone Veil de l'UVSQ, rattachée à l'université Paris-Saclay, et chef du service de gynécologie obstétrique et médecine de la reproduction à l'hôpital Foch.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marc Ayoubi, né au Liban le 29 septembre 1963, est un gynécologue obstétricien français, professeur des universités à l'UFR des sciences de la santé Simone Veil de l'UVSQ, rattachée à l'université Paris-Saclay, et chef du service de gynécologie obstétrique et médecine de la reproduction à l'hôpital Foch.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le professeur Jean-Marc Ayoubi est principalement renommé pour être celui qui a permis la première transplantation utérine française[2],[3]. À la suite d'une fécondation in-vitro, cette greffe a donné lieu à la naissance de la petite Misha le 12 février 2021[4].
-Reconnu en chirurgie gynécologique et particulièrement pour l'application des technologies de chirurgie robotique dans cette spécialité, il a contribué, en collaboration avec le professeur Mats Brännström, au développement de cette technique pour la greffe utérine[5].
-Rejoint à l’hôpital Foch de Suresnes par le professeur René Frydman, père du premier « bébé éprouvette » français, il est également reconnu pour son expertise en médecine de la reproduction et la prise en charge de l'infertilité[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le professeur Jean-Marc Ayoubi est principalement renommé pour être celui qui a permis la première transplantation utérine française,. À la suite d'une fécondation in-vitro, cette greffe a donné lieu à la naissance de la petite Misha le 12 février 2021.
+Reconnu en chirurgie gynécologique et particulièrement pour l'application des technologies de chirurgie robotique dans cette spécialité, il a contribué, en collaboration avec le professeur Mats Brännström, au développement de cette technique pour la greffe utérine.
+Rejoint à l’hôpital Foch de Suresnes par le professeur René Frydman, père du premier « bébé éprouvette » français, il est également reconnu pour son expertise en médecine de la reproduction et la prise en charge de l'infertilité.
 </t>
         </is>
       </c>
